--- a/medicine/Enfance/Nina_Bawden/Nina_Bawden.xlsx
+++ b/medicine/Enfance/Nina_Bawden/Nina_Bawden.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Nina Bawden (CBE, RSL), née le 19 janvier 1925 à Ilford, dans le Borough londonien de Redbridge, en Angleterre, et morte le 22 août 2012 à Londres, est une femme de lettres britannique, auteure de littérature d'enfance et de jeunesse et de roman policier.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Pendant la Seconde Guerre mondiale, elle est évacuée au Pays de Galles. Elle fait des études au Somerville College de l'Université d'Oxford où elle obtient un diplôme en philosophie, politique et économie.
 Elle commence sa carrière littéraire en 1953 dans le genre roman policier avec Qui mène le jeu ? (Who Calls the Tune). Après six romans dans ce genre, elle consacre son activité d'écriture à la littérature d'enfance et de jeunesse. Deux de ses romans sont récompensés de prix littéraires britanniques, Un petit cochon de poche (The Peppermint Pig) en 1976 avec le Guardian Children's Fiction Prize (en) et en 1993 La Guerre de Fanny (Carrie's War (en)) avec le Phoenix Award (en). Ce dernier roman s'inspire de son expérience personnelle pendant la Seconde Guerre mondiale. Plusieurs de ses romans pour la jeunesse sont adaptés dans différentes séries télévisées britanniques.
@@ -547,12 +561,58 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans de littérature d'enfance et de jeunesse
-Série Plato Jones
-The Real Plato Jones (1993)
-The Outside Child (1989) Publié en français sous le titre L'Enfant transparent, Paris, Hachette, Le Livre de poche Jeunesse no 421, 1991  (ISBN 2-01-016505-5)
-Autres romans de littérature d’enfance et de jeunesse
-Glass Slippers Always Pinch (1960)
+          <t>Romans de littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Série Plato Jones</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>The Real Plato Jones (1993)
+The Outside Child (1989) Publié en français sous le titre L'Enfant transparent, Paris, Hachette, Le Livre de poche Jeunesse no 421, 1991  (ISBN 2-01-016505-5)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Nina_Bawden</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nina_Bawden</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Romans de littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Autres romans de littérature d’enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Glass Slippers Always Pinch (1960)
 Just Like a Lady (1960)
 In Honour Bound (1961)
 The Secret Passage (1963)
@@ -593,52 +653,193 @@
 Welcome to Tangier (1996)
 A Nice Change (1997)
 Off the Road (1998)
-Ruffian on the Stair (2001)
-Romans policiers
-Who Calls the Tune (1953) (autre titre Eyes of Green) Publié en français sous le titre Qui mène le jeu ?, Paris, Plon, coll. « Le Ruban noir » no 7, 1954
+Ruffian on the Stair (2001)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Nina_Bawden</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nina_Bawden</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Romans policiers</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Who Calls the Tune (1953) (autre titre Eyes of Green) Publié en français sous le titre Qui mène le jeu ?, Paris, Plon, coll. « Le Ruban noir » no 7, 1954
 The Odd Flamingo (1954)
 Change Here for Babylon (1955)
 The Solitary Child (1956)
-Devil By the Sea (1957)
-Ouvrage illustré
-Saint Francis of Assisi (1983)
-Autres publications
-My Own Time: Almost an Autobiography (1994)
+Devil By the Sea (1957)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Nina_Bawden</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nina_Bawden</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Ouvrage illustré</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Saint Francis of Assisi (1983)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Nina_Bawden</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nina_Bawden</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Autres publications</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>My Own Time: Almost an Autobiography (1994)
 Dear Austen (2005)</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Nina_Bawden</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Nina_Bawden</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Nina_Bawden</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nina_Bawden</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Filmographie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Adaptations au cinéma
-1958 : The Solitary Child, film britannique réalisé par Gerald Thomas, adaptation du roman éponyme, avec Philip Friend et Barbara Shelley
-1968 : On the Run, film britannique réalisé par Pat Jackson, adaptation du roman éponyme, avec Dennis Conoley
-Adaptations à la télévision
-1967 à 1971 : 20 épisodes de la série télévisée britannique Jackanory (en), adaptations de A Handful of Thieves, The Witch's Daughter, The Runaway Summer et de The Secret Passage
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Adaptations au cinéma</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>1958 : The Solitary Child, film britannique réalisé par Gerald Thomas, adaptation du roman éponyme, avec Philip Friend et Barbara Shelley
+1968 : On the Run, film britannique réalisé par Pat Jackson, adaptation du roman éponyme, avec Dennis Conoley</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Nina_Bawden</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nina_Bawden</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Filmographie</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Adaptations à la télévision</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>1967 à 1971 : 20 épisodes de la série télévisée britannique Jackanory (en), adaptations de A Handful of Thieves, The Witch's Daughter, The Runaway Summer et de The Secret Passage
 1969 : A Handful of Thieves, mini-série télévisée britannique, adaptation du roman éponyme
 1971 : 5 épisodes de la mini-série télévisée britannique The Witch's Daughter, adaptation du roman éponyme
 1971 : 4 épisodes de la mini-série télévisée britannique The Runaway Summer, adaptation du roman éponyme
@@ -647,37 +848,73 @@
 1987 : The Finding, téléfilm britannique réalisé par Carol Wiseman, adaptation du roman éponyme
 1990 : Circles of Deceit, épisode de la série télévisée britannique Screen Two (en) réalisé par Stuart Burge, adaptation du roman éponyme
 1996 : The Witch's Daughter, téléfilm britannique réalisé par Alan Macmillan (en), adaptation du roman éponyme
-2004 : Carrie's War, téléfilm britannique réalisé par Coky Giedroyc, adaptation du roman éponyme
-Histoire originale pour la télévision
-1997 : 1 épisode de la série télévisée britannique Family Money</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Nina_Bawden</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Nina_Bawden</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+2004 : Carrie's War, téléfilm britannique réalisé par Coky Giedroyc, adaptation du roman éponyme</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Nina_Bawden</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nina_Bawden</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Filmographie</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Histoire originale pour la télévision</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>1997 : 1 épisode de la série télévisée britannique Family Money</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Nina_Bawden</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nina_Bawden</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Sources</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t xml:space="preserve"> : document utilisé comme source pour la rédaction de cet article.
 Claude Mesplède (dir.), Dictionnaire des littératures policières, vol. 1 : A - I, Nantes, Joseph K, coll. « Temps noir », 2007, 1054 p. (ISBN 978-2-910-68644-4, OCLC 315873251), p. 179</t>
